--- a/biology/Botanique/Sapotillier/Sapotillier.xlsx
+++ b/biology/Botanique/Sapotillier/Sapotillier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Manilkara zapota
 Le sapotillier (Manilkara zapota ou Achras sapota) est une espèce de plantes à fleurs de la famille des Sapotaceae. C'est un arbre fruitier originaire des Caraïbes et de l'Amérique centrale qui s'est ensuite répandu en Afrique et en Asie.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sapotillier est un arbre du Mexique de taille moyenne qui peut atteindre 35 m de haut et dont le tronc ne dépasse pas 80 cm de diamètre.
 Ses feuilles persistantes disposées en spirale sont légèrement dentées, elliptiques et mesurent 20 cm environ.
@@ -546,7 +560,9 @@
           <t>Habitat, écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbre de la strate arborescente supérieure de la forêt des régions humides et sèches des régions tropicales. Il supporte une culture jusqu'en zone USDA 8b (-8 °C) et supporte très bien la sècheresse.
 </t>
@@ -577,7 +593,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On cultive le sapotillier pour :
 son fruit, la sapotille, également appelé chiku ou chikoo dans certains pays.
@@ -611,7 +629,9 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Mayas tiraient déjà profit du sapotillier. Ils fabriquaient, à partir du latex recueilli, des balles à jouer.
 </t>
